--- a/KC Enemy Evasion Estimates (2022-05-26).xlsx
+++ b/KC Enemy Evasion Estimates (2022-05-26).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirit\Desktop\KanColle\Kancolle Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24359A7-11D2-4595-AF05-179DF3EE1907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898337AC-0E4D-4F03-9703-74A2FD1A69A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="171">
   <si>
     <t>id</t>
   </si>
@@ -546,6 +546,9 @@
   </si>
   <si>
     <t>also changed eva for 1952</t>
+  </si>
+  <si>
+    <t>also changed for vacation mode</t>
   </si>
 </sst>
 </file>
@@ -1360,13 +1363,13 @@
   <dimension ref="A1:R1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O288" sqref="O288"/>
+      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P168" sqref="P168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.54296875" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4633,7 +4636,7 @@
         <v>60</v>
       </c>
       <c r="Q125">
-        <f t="shared" ref="Q119:Q127" si="0">O125+SQRT(P125*2)</f>
+        <f t="shared" ref="Q125:Q137" si="0">O125+SQRT(P125*2)</f>
         <v>58.954451150103324</v>
       </c>
     </row>
@@ -4738,7 +4741,7 @@
         <v>4717</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>1740</v>
       </c>
@@ -4762,7 +4765,7 @@
         <v>14652</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>1742</v>
       </c>
@@ -4786,7 +4789,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>1743</v>
       </c>
@@ -4810,7 +4813,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>1745</v>
       </c>
@@ -4833,8 +4836,24 @@
       <c r="H132" s="51">
         <v>19952</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="N132">
+        <v>35</v>
+      </c>
+      <c r="O132">
+        <v>96</v>
+      </c>
+      <c r="P132">
+        <v>60</v>
+      </c>
+      <c r="Q132">
+        <f t="shared" si="0"/>
+        <v>106.95445115010332</v>
+      </c>
+      <c r="R132" s="62" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>1746</v>
       </c>
@@ -4857,8 +4876,24 @@
       <c r="H133" s="30">
         <v>14740</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="N133">
+        <v>40</v>
+      </c>
+      <c r="O133">
+        <v>96</v>
+      </c>
+      <c r="P133">
+        <v>70</v>
+      </c>
+      <c r="Q133">
+        <f t="shared" si="0"/>
+        <v>107.83215956619924</v>
+      </c>
+      <c r="R133" s="62" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>1747</v>
       </c>
@@ -4881,8 +4916,24 @@
       <c r="H134" s="53">
         <v>40658</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="N134">
+        <v>45</v>
+      </c>
+      <c r="O134">
+        <v>96</v>
+      </c>
+      <c r="P134">
+        <v>80</v>
+      </c>
+      <c r="Q134">
+        <f t="shared" si="0"/>
+        <v>108.64911064067351</v>
+      </c>
+      <c r="R134" s="62" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>1748</v>
       </c>
@@ -4905,8 +4956,24 @@
       <c r="H135" s="9">
         <v>1399</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="N135">
+        <v>40</v>
+      </c>
+      <c r="O135">
+        <v>126</v>
+      </c>
+      <c r="P135">
+        <v>65</v>
+      </c>
+      <c r="Q135">
+        <f t="shared" si="0"/>
+        <v>137.40175425099139</v>
+      </c>
+      <c r="R135" s="62" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>1749</v>
       </c>
@@ -4929,8 +4996,24 @@
       <c r="H136" s="9">
         <v>1020</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="N136">
+        <v>45</v>
+      </c>
+      <c r="O136">
+        <v>126</v>
+      </c>
+      <c r="P136">
+        <v>75</v>
+      </c>
+      <c r="Q136">
+        <f t="shared" si="0"/>
+        <v>138.2474487139159</v>
+      </c>
+      <c r="R136" s="62" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>1750</v>
       </c>
@@ -4953,8 +5036,24 @@
       <c r="H137" s="9">
         <v>1761</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="N137">
+        <v>50</v>
+      </c>
+      <c r="O137">
+        <v>126</v>
+      </c>
+      <c r="P137">
+        <v>85</v>
+      </c>
+      <c r="Q137">
+        <f t="shared" si="0"/>
+        <v>139.0384048104053</v>
+      </c>
+      <c r="R137" s="62" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>1755</v>
       </c>
@@ -4978,7 +5077,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>1756</v>
       </c>
@@ -5002,7 +5101,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>1757</v>
       </c>
@@ -5026,7 +5125,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>1758</v>
       </c>
@@ -5050,7 +5149,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>1759</v>
       </c>
@@ -5074,7 +5173,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>1760</v>
       </c>
@@ -5098,7 +5197,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>1762</v>
       </c>
@@ -5644,6 +5743,19 @@
       <c r="H162" s="9">
         <v>348</v>
       </c>
+      <c r="N162">
+        <v>25</v>
+      </c>
+      <c r="O162">
+        <v>68</v>
+      </c>
+      <c r="P162">
+        <v>85</v>
+      </c>
+      <c r="Q162">
+        <f t="shared" ref="Q162:Q164" si="1">O162+SQRT(2*P162)</f>
+        <v>81.038404810405297</v>
+      </c>
     </row>
     <row r="163" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
@@ -5716,6 +5828,19 @@
       <c r="H165" s="52">
         <v>6396</v>
       </c>
+      <c r="N165">
+        <v>30</v>
+      </c>
+      <c r="O165">
+        <v>108</v>
+      </c>
+      <c r="P165">
+        <v>90</v>
+      </c>
+      <c r="Q165">
+        <f t="shared" ref="Q165:Q172" si="2">O165+SQRT(2*P165)</f>
+        <v>121.41640786499875</v>
+      </c>
     </row>
     <row r="166" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
@@ -6099,7 +6224,7 @@
         <v>80</v>
       </c>
       <c r="Q180">
-        <f t="shared" ref="Q174:Q187" si="1">O180+SQRT(2*P180)</f>
+        <f t="shared" ref="Q180:Q187" si="3">O180+SQRT(2*P180)</f>
         <v>103.64911064067351</v>
       </c>
     </row>
@@ -6136,7 +6261,7 @@
         <v>90</v>
       </c>
       <c r="Q181">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>124.41640786499875</v>
       </c>
     </row>
@@ -6173,7 +6298,7 @@
         <v>100</v>
       </c>
       <c r="Q182">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>165.14213562373095</v>
       </c>
     </row>
@@ -6210,7 +6335,7 @@
         <v>30</v>
       </c>
       <c r="Q183">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>87.745966692414839</v>
       </c>
     </row>
@@ -6247,7 +6372,7 @@
         <v>50</v>
       </c>
       <c r="Q184">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
     </row>
@@ -6284,7 +6409,7 @@
         <v>80</v>
       </c>
       <c r="Q185">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>98.649110640673513</v>
       </c>
     </row>
@@ -6321,7 +6446,7 @@
         <v>90</v>
       </c>
       <c r="Q186">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>109.41640786499875</v>
       </c>
     </row>
@@ -6358,7 +6483,7 @@
         <v>100</v>
       </c>
       <c r="Q187">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120.14213562373095</v>
       </c>
     </row>
@@ -6611,7 +6736,7 @@
         <v>80</v>
       </c>
       <c r="Q197">
-        <f t="shared" ref="Q197:Q205" si="2">O197+SQRT(2*P197)</f>
+        <f t="shared" ref="Q197:Q205" si="4">O197+SQRT(2*P197)</f>
         <v>121.64911064067351</v>
       </c>
       <c r="R197" t="s">
@@ -6651,7 +6776,7 @@
         <v>70</v>
       </c>
       <c r="Q198">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>92.832159566199238</v>
       </c>
     </row>
@@ -6688,7 +6813,7 @@
         <v>80</v>
       </c>
       <c r="Q199">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>113.64911064067351</v>
       </c>
     </row>
@@ -6725,7 +6850,7 @@
         <v>90</v>
       </c>
       <c r="Q200">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>134.41640786499875</v>
       </c>
     </row>
@@ -6762,7 +6887,7 @@
         <v>100</v>
       </c>
       <c r="Q201">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>165.14213562373095</v>
       </c>
     </row>
@@ -6799,7 +6924,7 @@
         <v>70</v>
       </c>
       <c r="Q202">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>101.83215956619924</v>
       </c>
     </row>
@@ -6836,7 +6961,7 @@
         <v>70</v>
       </c>
       <c r="Q203">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>106.83215956619924</v>
       </c>
     </row>
@@ -6873,7 +6998,7 @@
         <v>80</v>
       </c>
       <c r="Q204">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>112.64911064067351</v>
       </c>
     </row>
@@ -6910,7 +7035,7 @@
         <v>90</v>
       </c>
       <c r="Q205">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>124.41640786499875</v>
       </c>
     </row>
@@ -7379,7 +7504,7 @@
         <v>70</v>
       </c>
       <c r="Q224">
-        <f t="shared" ref="Q224:Q249" si="3">O224+SQRT(2*P224)</f>
+        <f t="shared" ref="Q224:Q249" si="5">O224+SQRT(2*P224)</f>
         <v>97.832159566199238</v>
       </c>
     </row>
@@ -7416,7 +7541,7 @@
         <v>70</v>
       </c>
       <c r="Q225">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>92.832159566199238</v>
       </c>
     </row>
@@ -7453,7 +7578,7 @@
         <v>50</v>
       </c>
       <c r="Q226">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
     </row>
@@ -7490,7 +7615,7 @@
         <v>50</v>
       </c>
       <c r="Q227">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
     </row>
@@ -7527,7 +7652,7 @@
         <v>40</v>
       </c>
       <c r="Q228">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>40.944271909999159</v>
       </c>
     </row>
@@ -7564,7 +7689,7 @@
         <v>50</v>
       </c>
       <c r="Q229">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
     </row>
@@ -7721,7 +7846,7 @@
         <v>65</v>
       </c>
       <c r="Q235">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>64.401754250991374</v>
       </c>
     </row>
@@ -7758,7 +7883,7 @@
         <v>70</v>
       </c>
       <c r="Q236">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>79.832159566199238</v>
       </c>
     </row>
@@ -7795,7 +7920,7 @@
         <v>75</v>
       </c>
       <c r="Q237">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>95.247448713915887</v>
       </c>
     </row>
@@ -7880,7 +8005,7 @@
         <v>70</v>
       </c>
       <c r="Q240">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41.83215956619923</v>
       </c>
     </row>
@@ -7965,7 +8090,7 @@
         <v>70</v>
       </c>
       <c r="Q243">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>71.832159566199238</v>
       </c>
     </row>
@@ -8002,7 +8127,7 @@
         <v>80</v>
       </c>
       <c r="Q244">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>86.649110640673513</v>
       </c>
     </row>
@@ -8039,7 +8164,7 @@
         <v>90</v>
       </c>
       <c r="Q245">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>97.416407864998746</v>
       </c>
     </row>
@@ -8076,7 +8201,7 @@
         <v>100</v>
       </c>
       <c r="Q246">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>148.14213562373095</v>
       </c>
     </row>
@@ -8113,7 +8238,7 @@
         <v>80</v>
       </c>
       <c r="Q247">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>87.649110640673513</v>
       </c>
     </row>
@@ -8150,7 +8275,7 @@
         <v>90</v>
       </c>
       <c r="Q248">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>148.41640786499875</v>
       </c>
     </row>
@@ -8187,7 +8312,7 @@
         <v>100</v>
       </c>
       <c r="Q249">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>169.14213562373095</v>
       </c>
     </row>
@@ -8392,7 +8517,7 @@
         <v>70</v>
       </c>
       <c r="Q257">
-        <f t="shared" ref="Q257:Q259" si="4">O257+SQRT(2*P257)</f>
+        <f t="shared" ref="Q257:Q259" si="6">O257+SQRT(2*P257)</f>
         <v>107.83215956619924</v>
       </c>
     </row>
@@ -8429,7 +8554,7 @@
         <v>80</v>
       </c>
       <c r="Q258">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>118.64911064067351</v>
       </c>
     </row>
@@ -8466,7 +8591,7 @@
         <v>90</v>
       </c>
       <c r="Q259">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>129.41640786499875</v>
       </c>
     </row>
@@ -9151,7 +9276,7 @@
         <v>70</v>
       </c>
       <c r="Q287">
-        <f t="shared" ref="Q287" si="5">O287+SQRT(2*P287)</f>
+        <f t="shared" ref="Q287" si="7">O287+SQRT(2*P287)</f>
         <v>82.832159566199238</v>
       </c>
     </row>
